--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -737,31 +737,31 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833884</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.694224151566148E-11</v>
+        <v>-8.693901070699746E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671962</v>
+        <v>0.952627964667196</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965617</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>1.457077463567532E-10</v>
+        <v>1.457407147316364E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952627964640425</v>
+        <v>0.9526279646404248</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233333</v>
+        <v>0.9526279649233326</v>
       </c>
       <c r="Q4">
-        <v>1.564817058742537E-09</v>
+        <v>1.56485941328855E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315011</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322571</v>
+        <v>0.9526279649322563</v>
       </c>
       <c r="Q5">
-        <v>2.037847842978468E-09</v>
+        <v>2.037889979844982E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315011</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322571</v>
+        <v>0.9526279649322563</v>
       </c>
       <c r="Q6">
-        <v>2.037850062731996E-09</v>
+        <v>2.03788934906073E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377195</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>3.734156921377195</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
@@ -1122,13 +1122,13 @@
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758468</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8960735769153693</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997122</v>
+        <v>5.766209884997133</v>
       </c>
       <c r="R2">
         <v>-121.3466079962483</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.020226441315021</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.240040698163018</v>
+        <v>0.2400406981630185</v>
       </c>
       <c r="P3">
-        <v>0.8960735770061731</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977143</v>
+        <v>5.766209884977188</v>
       </c>
       <c r="R3">
         <v>-121.3466079609365</v>
@@ -1240,13 +1240,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651685</v>
+        <v>0.240040698165169</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323217</v>
+        <v>0.896073577032321</v>
       </c>
       <c r="Q4">
-        <v>5.76620988601802</v>
+        <v>5.766209886018071</v>
       </c>
       <c r="R4">
         <v>-121.346607946951</v>
@@ -1299,13 +1299,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658851</v>
+        <v>0.2400406981658856</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410377</v>
+        <v>0.8960735770410372</v>
       </c>
       <c r="Q5">
-        <v>5.766209886364981</v>
+        <v>5.766209886365027</v>
       </c>
       <c r="R5">
         <v>-121.3466079422892</v>
@@ -1358,13 +1358,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658851</v>
+        <v>0.2400406981658857</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410378</v>
+        <v>0.8960735770410372</v>
       </c>
       <c r="Q6">
-        <v>5.766209886364976</v>
+        <v>5.766209886365028</v>
       </c>
       <c r="R6">
         <v>-121.3466079422892</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377195</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>3.734156921377195</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1471,16 +1471,16 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
@@ -1489,13 +1489,13 @@
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758468</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8960735769153693</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997122</v>
+        <v>5.766209884997133</v>
       </c>
       <c r="R2">
         <v>-121.3466079962483</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.020226441315021</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.240040698163018</v>
+        <v>0.2400406981630185</v>
       </c>
       <c r="P3">
-        <v>0.8960735770061731</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977143</v>
+        <v>5.766209884977188</v>
       </c>
       <c r="R3">
         <v>-121.3466079609365</v>
@@ -1607,13 +1607,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651685</v>
+        <v>0.240040698165169</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323217</v>
+        <v>0.896073577032321</v>
       </c>
       <c r="Q4">
-        <v>5.76620988601802</v>
+        <v>5.766209886018071</v>
       </c>
       <c r="R4">
         <v>-121.346607946951</v>
@@ -1666,13 +1666,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658851</v>
+        <v>0.2400406981658856</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410377</v>
+        <v>0.8960735770410372</v>
       </c>
       <c r="Q5">
-        <v>5.766209886364981</v>
+        <v>5.766209886365027</v>
       </c>
       <c r="R5">
         <v>-121.3466079422892</v>
@@ -1725,13 +1725,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658851</v>
+        <v>0.2400406981658857</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410378</v>
+        <v>0.8960735770410372</v>
       </c>
       <c r="Q6">
-        <v>5.766209886364976</v>
+        <v>5.766209886365028</v>
       </c>
       <c r="R6">
         <v>-121.3466079422892</v>
@@ -1841,28 +1841,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845061</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.86602540378499</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.720017261727506E-10</v>
+        <v>1.719964841875607E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789685</v>
+        <v>0.866025403678968</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905284</v>
+        <v>0.8660254038905281</v>
       </c>
       <c r="Q3">
-        <v>4.106694935551049E-10</v>
+        <v>4.106904338061526E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.866025403654631</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148658</v>
+        <v>0.8660254039148656</v>
       </c>
       <c r="Q4">
-        <v>3.135346079106615E-09</v>
+        <v>3.135381414301995E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229784</v>
+        <v>0.8660254039229781</v>
       </c>
       <c r="Q5">
-        <v>4.043576102015386E-09</v>
+        <v>4.043621427915955E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999959477</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465178</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229784</v>
+        <v>0.866025403922978</v>
       </c>
       <c r="Q6">
-        <v>4.043585162326508E-09</v>
+        <v>4.043622016672107E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999959477</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2208,28 +2208,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845061</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.86602540378499</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.720017261727506E-10</v>
+        <v>1.719964841875607E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789685</v>
+        <v>0.866025403678968</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905284</v>
+        <v>0.8660254038905281</v>
       </c>
       <c r="Q3">
-        <v>4.106694935551049E-10</v>
+        <v>4.106904338061526E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.866025403654631</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148658</v>
+        <v>0.8660254039148656</v>
       </c>
       <c r="Q4">
-        <v>3.135346079106615E-09</v>
+        <v>3.135381414301995E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229784</v>
+        <v>0.8660254039229781</v>
       </c>
       <c r="Q5">
-        <v>4.043576102015386E-09</v>
+        <v>4.043621427915955E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999959477</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465178</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229784</v>
+        <v>0.866025403922978</v>
       </c>
       <c r="Q6">
-        <v>4.043585162326508E-09</v>
+        <v>4.043622016672107E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999959477</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2575,28 +2575,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9220324944339027</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
-        <v>0.8180121061818276</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115779</v>
+        <v>5.173976904115773</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451755</v>
+        <v>0.922032494345175</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166727</v>
+        <v>0.1964063472166729</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689194</v>
+        <v>0.8180121062689191</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114538</v>
+        <v>5.173976904114549</v>
       </c>
       <c r="R3">
-        <v>-122.144920254997</v>
+        <v>-122.1449202549969</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235487</v>
+        <v>0.9220324943235482</v>
       </c>
       <c r="O4">
-        <v>0.196406347244338</v>
+        <v>0.1964063472443386</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966175</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219855</v>
+        <v>5.173976906219884</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329785</v>
+        <v>-122.1449202329784</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163396</v>
+        <v>0.9220324943163392</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535597</v>
+        <v>0.1964063472535605</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058501</v>
+        <v>0.8180121063058498</v>
       </c>
       <c r="Q5">
-        <v>5.17397690692163</v>
+        <v>5.173976906921665</v>
       </c>
       <c r="R5">
-        <v>-122.144920225639</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163396</v>
+        <v>0.9220324943163392</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535598</v>
+        <v>0.1964063472535605</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058501</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>5.17397690692163</v>
+        <v>5.173976906921666</v>
       </c>
       <c r="R6">
-        <v>-122.144920225639</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -2942,28 +2942,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9220324944339027</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
-        <v>0.8180121061818276</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115779</v>
+        <v>5.173976904115773</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451755</v>
+        <v>0.922032494345175</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166727</v>
+        <v>0.1964063472166729</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689194</v>
+        <v>0.8180121062689191</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114538</v>
+        <v>5.173976904114549</v>
       </c>
       <c r="R3">
-        <v>-122.144920254997</v>
+        <v>-122.1449202549969</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235487</v>
+        <v>0.9220324943235482</v>
       </c>
       <c r="O4">
-        <v>0.196406347244338</v>
+        <v>0.1964063472443386</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966175</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219855</v>
+        <v>5.173976906219884</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329785</v>
+        <v>-122.1449202329784</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163396</v>
+        <v>0.9220324943163392</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535597</v>
+        <v>0.1964063472535605</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058501</v>
+        <v>0.8180121063058498</v>
       </c>
       <c r="Q5">
-        <v>5.17397690692163</v>
+        <v>5.173976906921665</v>
       </c>
       <c r="R5">
-        <v>-122.144920225639</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163396</v>
+        <v>0.9220324943163392</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535598</v>
+        <v>0.1964063472535605</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058501</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>5.17397690692163</v>
+        <v>5.173976906921666</v>
       </c>
       <c r="R6">
-        <v>-122.144920225639</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -3309,28 +3309,28 @@
         <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394473163431</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>13.24394453563963</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740155</v>
+        <v>0.6350853098740152</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409385</v>
+        <v>0.6350853099409387</v>
       </c>
       <c r="Q2">
         <v>59.99999999685334</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853099894108</v>
+        <v>0.6350853099894107</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
         <v>0.6350853098300102</v>
       </c>
       <c r="Q3">
-        <v>60.00000000239915</v>
+        <v>60.00000000239913</v>
       </c>
       <c r="R3">
         <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>120.0000000058973</v>
+        <v>120.0000000058974</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853100298045</v>
+        <v>0.6350853100298044</v>
       </c>
       <c r="O4">
         <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.6350853098168615</v>
+        <v>0.6350853098168616</v>
       </c>
       <c r="Q4">
-        <v>60.00000000166494</v>
+        <v>60.00000000166491</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
         <v>120.0000000094205</v>
@@ -3510,19 +3510,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853100432691</v>
+        <v>0.6350853100432688</v>
       </c>
       <c r="O5">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P5">
         <v>0.6350853098124787</v>
       </c>
       <c r="Q5">
-        <v>60.0000000014202</v>
+        <v>60.00000000142018</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S5">
         <v>120.0000000105948</v>
@@ -3572,19 +3572,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853100432691</v>
+        <v>0.6350853100432688</v>
       </c>
       <c r="O6">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P6">
-        <v>0.6350853098124787</v>
+        <v>0.6350853098124788</v>
       </c>
       <c r="Q6">
-        <v>60.0000000014202</v>
+        <v>60.00000000142016</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S6">
         <v>120.0000000105948</v>
@@ -3694,28 +3694,28 @@
         <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394473163431</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>13.24394453563963</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740155</v>
+        <v>0.6350853098740152</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409385</v>
+        <v>0.6350853099409387</v>
       </c>
       <c r="Q2">
         <v>59.99999999685334</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853099894108</v>
+        <v>0.6350853099894107</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
         <v>0.6350853098300102</v>
       </c>
       <c r="Q3">
-        <v>60.00000000239915</v>
+        <v>60.00000000239913</v>
       </c>
       <c r="R3">
         <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>120.0000000058973</v>
+        <v>120.0000000058974</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,19 +3833,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853100298045</v>
+        <v>0.6350853100298044</v>
       </c>
       <c r="O4">
         <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.6350853098168615</v>
+        <v>0.6350853098168616</v>
       </c>
       <c r="Q4">
-        <v>60.00000000166494</v>
+        <v>60.00000000166491</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
         <v>120.0000000094205</v>
@@ -3895,19 +3895,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853100432691</v>
+        <v>0.6350853100432688</v>
       </c>
       <c r="O5">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P5">
         <v>0.6350853098124787</v>
       </c>
       <c r="Q5">
-        <v>60.0000000014202</v>
+        <v>60.00000000142018</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S5">
         <v>120.0000000105948</v>
@@ -3957,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853100432691</v>
+        <v>0.6350853100432688</v>
       </c>
       <c r="O6">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P6">
-        <v>0.6350853098124787</v>
+        <v>0.6350853098124788</v>
       </c>
       <c r="Q6">
-        <v>60.0000000014202</v>
+        <v>60.00000000142016</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S6">
         <v>120.0000000105948</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>229.7713440812007</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4079,19 +4079,19 @@
         <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394473163431</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>13.24394453563963</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
         <v>0.6918398877278028</v>
@@ -4103,7 +4103,7 @@
         <v>0.8378427578966811</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604943</v>
+        <v>40.40951795604942</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6918398877714423</v>
+        <v>0.6918398877714421</v>
       </c>
       <c r="O3">
         <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.8378427578167504</v>
+        <v>0.8378427578167502</v>
       </c>
       <c r="Q3">
         <v>40.40951796258038</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S3">
         <v>128.9574716984651</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6918398877978498</v>
+        <v>0.6918398877978496</v>
       </c>
       <c r="O4">
         <v>1.100000023874165</v>
@@ -4280,13 +4280,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6918398878066521</v>
+        <v>0.691839887806652</v>
       </c>
       <c r="O5">
         <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>0.8378427578019165</v>
+        <v>0.8378427578019163</v>
       </c>
       <c r="Q5">
         <v>40.40951796373536</v>
@@ -4342,13 +4342,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6918398878066522</v>
+        <v>0.6918398878066521</v>
       </c>
       <c r="O6">
         <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>0.8378427578019165</v>
+        <v>0.8378427578019163</v>
       </c>
       <c r="Q6">
         <v>40.40951796373535</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>229.7713440812007</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4615,19 +4615,19 @@
         <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394473163431</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>13.24394453563963</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
         <v>0.6918398877278028</v>
@@ -4639,7 +4639,7 @@
         <v>0.8378427578966811</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604943</v>
+        <v>40.40951795604942</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
@@ -4692,19 +4692,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6918398877714423</v>
+        <v>0.6918398877714421</v>
       </c>
       <c r="O3">
         <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.8378427578167504</v>
+        <v>0.8378427578167502</v>
       </c>
       <c r="Q3">
         <v>40.40951796258038</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S3">
         <v>128.9574716984651</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6918398877978498</v>
+        <v>0.6918398877978496</v>
       </c>
       <c r="O4">
         <v>1.100000023874165</v>
@@ -4816,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6918398878066521</v>
+        <v>0.691839887806652</v>
       </c>
       <c r="O5">
         <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>0.8378427578019165</v>
+        <v>0.8378427578019163</v>
       </c>
       <c r="Q5">
         <v>40.40951796373536</v>
@@ -4878,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6918398878066522</v>
+        <v>0.6918398878066521</v>
       </c>
       <c r="O6">
         <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>0.8378427578019165</v>
+        <v>0.8378427578019163</v>
       </c>
       <c r="Q6">
         <v>40.40951796373535</v>
@@ -4997,19 +4997,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142823</v>
       </c>
       <c r="J2">
-        <v>1.504993722648793</v>
+        <v>1.504993722648792</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695424</v>
       </c>
       <c r="M2">
         <v>15.04993697229304</v>
@@ -5018,13 +5018,13 @@
         <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541782</v>
+        <v>0.5773502692541781</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647621</v>
+        <v>59.99999999647623</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -5077,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502692231758</v>
+        <v>0.5773502692231759</v>
       </c>
       <c r="O3">
         <v>0.9999999999962953</v>
       </c>
       <c r="P3">
-        <v>0.5773502691507323</v>
+        <v>0.5773502691507322</v>
       </c>
       <c r="Q3">
-        <v>60.00000000216506</v>
+        <v>60.00000000216507</v>
       </c>
       <c r="R3">
         <v>-89.99999999999581</v>
@@ -5139,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502692712907</v>
+        <v>0.577350269271291</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P4">
-        <v>0.5773502691501726</v>
+        <v>0.5773502691501725</v>
       </c>
       <c r="Q4">
-        <v>59.99999999947241</v>
+        <v>59.99999999947243</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
         <v>120.000000007461</v>
@@ -5201,19 +5201,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502692873291</v>
+        <v>0.5773502692873294</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502691499859</v>
+        <v>0.5773502691499858</v>
       </c>
       <c r="Q5">
-        <v>59.99999999857489</v>
+        <v>59.9999999985749</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
         <v>120.0000000092881</v>
@@ -5263,19 +5263,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502692873291</v>
+        <v>0.5773502692873294</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
         <v>0.5773502691499859</v>
       </c>
       <c r="Q6">
-        <v>59.99999999857489</v>
+        <v>59.99999999857491</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S6">
         <v>120.0000000092881</v>
@@ -5382,19 +5382,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142823</v>
       </c>
       <c r="J2">
-        <v>1.504993722648793</v>
+        <v>1.504993722648792</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695424</v>
       </c>
       <c r="M2">
         <v>15.04993697229304</v>
@@ -5403,13 +5403,13 @@
         <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541782</v>
+        <v>0.5773502692541781</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647621</v>
+        <v>59.99999999647623</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -5462,16 +5462,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502692231758</v>
+        <v>0.5773502692231759</v>
       </c>
       <c r="O3">
         <v>0.9999999999962953</v>
       </c>
       <c r="P3">
-        <v>0.5773502691507323</v>
+        <v>0.5773502691507322</v>
       </c>
       <c r="Q3">
-        <v>60.00000000216506</v>
+        <v>60.00000000216507</v>
       </c>
       <c r="R3">
         <v>-89.99999999999581</v>
@@ -5524,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502692712907</v>
+        <v>0.577350269271291</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P4">
-        <v>0.5773502691501726</v>
+        <v>0.5773502691501725</v>
       </c>
       <c r="Q4">
-        <v>59.99999999947241</v>
+        <v>59.99999999947243</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
         <v>120.000000007461</v>
@@ -5586,19 +5586,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502692873291</v>
+        <v>0.5773502692873294</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502691499859</v>
+        <v>0.5773502691499858</v>
       </c>
       <c r="Q5">
-        <v>59.99999999857489</v>
+        <v>59.9999999985749</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
         <v>120.0000000092881</v>
@@ -5648,19 +5648,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502692873291</v>
+        <v>0.5773502692873294</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
         <v>0.5773502691499859</v>
       </c>
       <c r="Q6">
-        <v>59.99999999857489</v>
+        <v>59.99999999857491</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S6">
         <v>120.0000000092881</v>
@@ -5767,19 +5767,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142823</v>
       </c>
       <c r="J2">
-        <v>1.504993722648793</v>
+        <v>1.504993722648792</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695424</v>
       </c>
       <c r="M2">
         <v>15.04993697229304</v>
@@ -5788,13 +5788,13 @@
         <v>0.6184267549947473</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908645</v>
+        <v>0.9999999999908644</v>
       </c>
       <c r="P2">
-        <v>0.747299752735181</v>
+        <v>0.7472997527351807</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119257</v>
+        <v>41.77463363119258</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
@@ -5847,19 +5847,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6184267550404209</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908706</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P3">
         <v>0.7472997526577979</v>
       </c>
       <c r="Q3">
-        <v>41.77463363810639</v>
+        <v>41.7746336381064</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999612</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
         <v>128.1091583228108</v>
@@ -5912,13 +5912,13 @@
         <v>0.6184267550800499</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908706</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P4">
-        <v>0.7472997526545255</v>
+        <v>0.7472997526545254</v>
       </c>
       <c r="Q4">
-        <v>41.774633638175</v>
+        <v>41.77463363817501</v>
       </c>
       <c r="R4">
         <v>-89.99999999999611</v>
@@ -5971,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6184267550932595</v>
+        <v>0.6184267550932596</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908706</v>
+        <v>0.999999999990871</v>
       </c>
       <c r="P5">
         <v>0.7472997526534344</v>
@@ -5983,7 +5983,7 @@
         <v>41.77463363819789</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999609</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S5">
         <v>128.1091583268488</v>
@@ -6036,16 +6036,16 @@
         <v>0.6184267550932595</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908706</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P6">
-        <v>0.7472997526534345</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q6">
-        <v>41.77463363819788</v>
+        <v>41.77463363819789</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999609</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S6">
         <v>128.1091583268488</v>
@@ -6152,19 +6152,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142823</v>
       </c>
       <c r="J2">
-        <v>1.504993722648793</v>
+        <v>1.504993722648792</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695424</v>
       </c>
       <c r="M2">
         <v>15.04993697229304</v>
@@ -6173,13 +6173,13 @@
         <v>0.6184267549947473</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908645</v>
+        <v>0.9999999999908644</v>
       </c>
       <c r="P2">
-        <v>0.747299752735181</v>
+        <v>0.7472997527351807</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119257</v>
+        <v>41.77463363119258</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
@@ -6232,19 +6232,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6184267550404209</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908706</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P3">
         <v>0.7472997526577979</v>
       </c>
       <c r="Q3">
-        <v>41.77463363810639</v>
+        <v>41.7746336381064</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999612</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
         <v>128.1091583228108</v>
@@ -6297,13 +6297,13 @@
         <v>0.6184267550800499</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908706</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P4">
-        <v>0.7472997526545255</v>
+        <v>0.7472997526545254</v>
       </c>
       <c r="Q4">
-        <v>41.774633638175</v>
+        <v>41.77463363817501</v>
       </c>
       <c r="R4">
         <v>-89.99999999999611</v>
@@ -6356,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6184267550932595</v>
+        <v>0.6184267550932596</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908706</v>
+        <v>0.999999999990871</v>
       </c>
       <c r="P5">
         <v>0.7472997526534344</v>
@@ -6368,7 +6368,7 @@
         <v>41.77463363819789</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999609</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S5">
         <v>128.1091583268488</v>
@@ -6421,16 +6421,16 @@
         <v>0.6184267550932595</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908706</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P6">
-        <v>0.7472997526534345</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q6">
-        <v>41.77463363819788</v>
+        <v>41.77463363819789</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999609</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S6">
         <v>128.1091583268488</v>
@@ -6525,7 +6525,7 @@
         <v>5.248639108736849</v>
       </c>
       <c r="D2">
-        <v>5.248639107970815</v>
+        <v>5.248639107970813</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6534,37 +6534,37 @@
         <v>333.3333522539259</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>333.3333522052761</v>
       </c>
       <c r="H2">
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347087</v>
+        <v>0.6350853098347083</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507082</v>
+        <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>-4.877416366123749E-09</v>
+        <v>-4.877415396881149E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853097237747</v>
+        <v>0.6350853097237746</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853099661099</v>
+        <v>0.6350853099661095</v>
       </c>
       <c r="Q3">
-        <v>1.36716389528941E-09</v>
+        <v>1.367199582563929E-09</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999983959</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,16 +6679,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853097106259</v>
+        <v>0.6350853097106257</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853100065039</v>
+        <v>0.6350853100065034</v>
       </c>
       <c r="Q4">
-        <v>4.890261392281263E-09</v>
+        <v>4.890295876295793E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6741,16 +6741,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085309706243</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853100199687</v>
+        <v>0.6350853100199679</v>
       </c>
       <c r="Q5">
-        <v>6.06462597155087E-09</v>
+        <v>6.064649788997769E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6803,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085309706243</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853100199687</v>
+        <v>0.635085310019968</v>
       </c>
       <c r="Q6">
-        <v>6.064626929987934E-09</v>
+        <v>6.064643303130793E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>5.248639108736849</v>
       </c>
       <c r="D2">
-        <v>5.248639107970815</v>
+        <v>5.248639107970813</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6919,37 +6919,37 @@
         <v>333.3333522539259</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>333.3333522052761</v>
       </c>
       <c r="H2">
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347087</v>
+        <v>0.6350853098347083</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507082</v>
+        <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>-4.877416366123749E-09</v>
+        <v>-4.877415396881149E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853097237747</v>
+        <v>0.6350853097237746</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853099661099</v>
+        <v>0.6350853099661095</v>
       </c>
       <c r="Q3">
-        <v>1.36716389528941E-09</v>
+        <v>1.367199582563929E-09</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999983959</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853097106259</v>
+        <v>0.6350853097106257</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853100065039</v>
+        <v>0.6350853100065034</v>
       </c>
       <c r="Q4">
-        <v>4.890261392281263E-09</v>
+        <v>4.890295876295793E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -7126,16 +7126,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085309706243</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853100199687</v>
+        <v>0.6350853100199679</v>
       </c>
       <c r="Q5">
-        <v>6.06462597155087E-09</v>
+        <v>6.064649788997769E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -7188,16 +7188,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085309706243</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853100199687</v>
+        <v>0.635085310019968</v>
       </c>
       <c r="Q6">
-        <v>6.064626929987934E-09</v>
+        <v>6.064643303130793E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>3.617960382231207</v>
+        <v>3.617960382231205</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7310,16 +7310,16 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
@@ -7328,13 +7328,13 @@
         <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898903</v>
+        <v>0.4028253111898904</v>
       </c>
       <c r="P2">
         <v>0.6918398877011798</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504768</v>
+        <v>8.95747169350477</v>
       </c>
       <c r="R2">
         <v>-115.8807585964592</v>
@@ -7343,7 +7343,7 @@
         <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.617960382370079</v>
+        <v>3.617960382370077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8378427577457516</v>
+        <v>0.8378427577457515</v>
       </c>
       <c r="O3">
-        <v>0.402825311095215</v>
+        <v>0.4028253110952152</v>
       </c>
       <c r="P3">
-        <v>0.6918398877448093</v>
+        <v>0.691839887744809</v>
       </c>
       <c r="Q3">
-        <v>8.957471696351593</v>
+        <v>8.957471696351638</v>
       </c>
       <c r="R3">
         <v>-115.8807585788046</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8378427577346262</v>
+        <v>0.8378427577346261</v>
       </c>
       <c r="O4">
-        <v>0.4028253110970192</v>
+        <v>0.4028253110970196</v>
       </c>
       <c r="P4">
-        <v>0.691839887771217</v>
+        <v>0.6918398877712166</v>
       </c>
       <c r="Q4">
-        <v>8.957471698138754</v>
+        <v>8.957471698138804</v>
       </c>
       <c r="R4">
         <v>-115.8807585718118</v>
       </c>
       <c r="S4">
-        <v>160.4095179643535</v>
+        <v>160.4095179643536</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,16 +7511,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8378427577309177</v>
+        <v>0.8378427577309175</v>
       </c>
       <c r="O5">
-        <v>0.4028253110976206</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P5">
-        <v>0.6918398877800196</v>
+        <v>0.691839887780019</v>
       </c>
       <c r="Q5">
-        <v>8.95747169873448</v>
+        <v>8.957471698734524</v>
       </c>
       <c r="R5">
         <v>-115.8807585694809</v>
@@ -7573,16 +7573,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8378427577309178</v>
+        <v>0.8378427577309175</v>
       </c>
       <c r="O6">
-        <v>0.4028253110976206</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P6">
-        <v>0.6918398877800196</v>
+        <v>0.6918398877800191</v>
       </c>
       <c r="Q6">
-        <v>8.957471698734482</v>
+        <v>8.957471698734523</v>
       </c>
       <c r="R6">
         <v>-115.8807585694809</v>
@@ -7680,7 +7680,7 @@
         <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>3.617960382231207</v>
+        <v>3.617960382231205</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7695,16 +7695,16 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
@@ -7713,13 +7713,13 @@
         <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898903</v>
+        <v>0.4028253111898904</v>
       </c>
       <c r="P2">
         <v>0.6918398877011798</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504768</v>
+        <v>8.95747169350477</v>
       </c>
       <c r="R2">
         <v>-115.8807585964592</v>
@@ -7728,7 +7728,7 @@
         <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.617960382370079</v>
+        <v>3.617960382370077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,16 +7772,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8378427577457516</v>
+        <v>0.8378427577457515</v>
       </c>
       <c r="O3">
-        <v>0.402825311095215</v>
+        <v>0.4028253110952152</v>
       </c>
       <c r="P3">
-        <v>0.6918398877448093</v>
+        <v>0.691839887744809</v>
       </c>
       <c r="Q3">
-        <v>8.957471696351593</v>
+        <v>8.957471696351638</v>
       </c>
       <c r="R3">
         <v>-115.8807585788046</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8378427577346262</v>
+        <v>0.8378427577346261</v>
       </c>
       <c r="O4">
-        <v>0.4028253110970192</v>
+        <v>0.4028253110970196</v>
       </c>
       <c r="P4">
-        <v>0.691839887771217</v>
+        <v>0.6918398877712166</v>
       </c>
       <c r="Q4">
-        <v>8.957471698138754</v>
+        <v>8.957471698138804</v>
       </c>
       <c r="R4">
         <v>-115.8807585718118</v>
       </c>
       <c r="S4">
-        <v>160.4095179643535</v>
+        <v>160.4095179643536</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,16 +7896,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8378427577309177</v>
+        <v>0.8378427577309175</v>
       </c>
       <c r="O5">
-        <v>0.4028253110976206</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P5">
-        <v>0.6918398877800196</v>
+        <v>0.691839887780019</v>
       </c>
       <c r="Q5">
-        <v>8.95747169873448</v>
+        <v>8.957471698734524</v>
       </c>
       <c r="R5">
         <v>-115.8807585694809</v>
@@ -7958,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8378427577309178</v>
+        <v>0.8378427577309175</v>
       </c>
       <c r="O6">
-        <v>0.4028253110976206</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P6">
-        <v>0.6918398877800196</v>
+        <v>0.6918398877800191</v>
       </c>
       <c r="Q6">
-        <v>8.957471698734482</v>
+        <v>8.957471698734523</v>
       </c>
       <c r="R6">
         <v>-115.8807585694809</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.198911196109217</v>
+        <v>4.198911196109215</v>
       </c>
       <c r="D2">
         <v>4.198911195412807</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666760314689</v>
+        <v>266.6666760314688</v>
       </c>
       <c r="G2">
         <v>266.6666759872409</v>
@@ -8083,28 +8083,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.577350269195234</v>
+        <v>0.5773502691952341</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743765</v>
+        <v>0.5773502691743763</v>
       </c>
       <c r="Q2">
-        <v>-5.81289643974619E-09</v>
+        <v>-5.812883717527463E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.19891119582141</v>
+        <v>4.198911195821409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,16 +8157,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502690917842</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502692819936</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>5.92790268483696E-10</v>
+        <v>5.928289467530522E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8219,16 +8219,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502690912242</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773502693301087</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>6.074242342953181E-09</v>
+        <v>6.07430225262612E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502690910374</v>
+        <v>0.5773502690910373</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577350269346147</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q5">
-        <v>7.901400371399579E-09</v>
+        <v>7.901483739767267E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502690910374</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577350269346147</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q6">
-        <v>7.901411279966425E-09</v>
+        <v>7.901488241793788E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.198911196109217</v>
+        <v>4.198911196109215</v>
       </c>
       <c r="D2">
         <v>4.198911195412807</v>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666760314689</v>
+        <v>266.6666760314688</v>
       </c>
       <c r="G2">
         <v>266.6666759872409</v>
@@ -8619,28 +8619,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.577350269195234</v>
+        <v>0.5773502691952341</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743765</v>
+        <v>0.5773502691743763</v>
       </c>
       <c r="Q2">
-        <v>-5.81289643974619E-09</v>
+        <v>-5.812883717527463E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.19891119582141</v>
+        <v>4.198911195821409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502690917842</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502692819936</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>5.92790268483696E-10</v>
+        <v>5.928289467530522E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8755,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502690912242</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773502693301087</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>6.074242342953181E-09</v>
+        <v>6.07430225262612E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502690910374</v>
+        <v>0.5773502690910373</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577350269346147</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q5">
-        <v>7.901400371399579E-09</v>
+        <v>7.901483739767267E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502690910374</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577350269346147</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q6">
-        <v>7.901411279966425E-09</v>
+        <v>7.901488241793788E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.012913138951923</v>
+        <v>3.012913138951924</v>
       </c>
       <c r="D2">
         <v>3.012913138593917</v>
@@ -9004,31 +9004,31 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192564</v>
+        <v>0.7472997527192563</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689602</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384416</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>8.10915831880229</v>
+        <v>8.109158318802281</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767961</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
         <v>161.7746336318227</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7472997526418618</v>
+        <v>0.7472997526418613</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770563</v>
+        <v>0.3354590830770564</v>
       </c>
       <c r="P3">
-        <v>0.6184267550841063</v>
+        <v>0.6184267550841059</v>
       </c>
       <c r="Q3">
-        <v>8.109158321931357</v>
+        <v>8.109158321931353</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562166</v>
+        <v>-117.0248837562165</v>
       </c>
       <c r="S3">
-        <v>161.7746336387373</v>
+        <v>161.7746336387372</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,19 +9140,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7472997526385892</v>
+        <v>0.7472997526385887</v>
       </c>
       <c r="O4">
-        <v>0.3354590831006823</v>
+        <v>0.3354590831006828</v>
       </c>
       <c r="P4">
-        <v>0.6184267551237352</v>
+        <v>0.6184267551237349</v>
       </c>
       <c r="Q4">
-        <v>8.109158324959852</v>
+        <v>8.109158324959864</v>
       </c>
       <c r="R4">
-        <v>-117.0248837452073</v>
+        <v>-117.0248837452072</v>
       </c>
       <c r="S4">
         <v>161.7746336388059</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7472997526374981</v>
+        <v>0.7472997526374978</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085576</v>
+        <v>0.3354590831085583</v>
       </c>
       <c r="P5">
-        <v>0.6184267551369449</v>
+        <v>0.6184267551369446</v>
       </c>
       <c r="Q5">
-        <v>8.109158325969355</v>
+        <v>8.109158325969382</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415376</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S5">
-        <v>161.7746336388288</v>
+        <v>161.7746336388287</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7472997526374981</v>
+        <v>0.7472997526374978</v>
       </c>
       <c r="O6">
-        <v>0.3354590831085576</v>
+        <v>0.3354590831085583</v>
       </c>
       <c r="P6">
-        <v>0.6184267551369448</v>
+        <v>0.6184267551369446</v>
       </c>
       <c r="Q6">
-        <v>8.109158325969355</v>
+        <v>8.10915832596938</v>
       </c>
       <c r="R6">
-        <v>-117.0248837415376</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S6">
-        <v>161.7746336388288</v>
+        <v>161.7746336388287</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.012913138951923</v>
+        <v>3.012913138951924</v>
       </c>
       <c r="D2">
         <v>3.012913138593917</v>
@@ -9389,31 +9389,31 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246241</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192564</v>
+        <v>0.7472997527192563</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689602</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384416</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>8.10915831880229</v>
+        <v>8.109158318802281</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767961</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
         <v>161.7746336318227</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7472997526418618</v>
+        <v>0.7472997526418613</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770563</v>
+        <v>0.3354590830770564</v>
       </c>
       <c r="P3">
-        <v>0.6184267550841063</v>
+        <v>0.6184267550841059</v>
       </c>
       <c r="Q3">
-        <v>8.109158321931357</v>
+        <v>8.109158321931353</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562166</v>
+        <v>-117.0248837562165</v>
       </c>
       <c r="S3">
-        <v>161.7746336387373</v>
+        <v>161.7746336387372</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,19 +9525,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7472997526385892</v>
+        <v>0.7472997526385887</v>
       </c>
       <c r="O4">
-        <v>0.3354590831006823</v>
+        <v>0.3354590831006828</v>
       </c>
       <c r="P4">
-        <v>0.6184267551237352</v>
+        <v>0.6184267551237349</v>
       </c>
       <c r="Q4">
-        <v>8.109158324959852</v>
+        <v>8.109158324959864</v>
       </c>
       <c r="R4">
-        <v>-117.0248837452073</v>
+        <v>-117.0248837452072</v>
       </c>
       <c r="S4">
         <v>161.7746336388059</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7472997526374981</v>
+        <v>0.7472997526374978</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085576</v>
+        <v>0.3354590831085583</v>
       </c>
       <c r="P5">
-        <v>0.6184267551369449</v>
+        <v>0.6184267551369446</v>
       </c>
       <c r="Q5">
-        <v>8.109158325969355</v>
+        <v>8.109158325969382</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415376</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S5">
-        <v>161.7746336388288</v>
+        <v>161.7746336388287</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7472997526374981</v>
+        <v>0.7472997526374978</v>
       </c>
       <c r="O6">
-        <v>0.3354590831085576</v>
+        <v>0.3354590831085583</v>
       </c>
       <c r="P6">
-        <v>0.6184267551369448</v>
+        <v>0.6184267551369446</v>
       </c>
       <c r="Q6">
-        <v>8.109158325969355</v>
+        <v>8.10915832596938</v>
       </c>
       <c r="R6">
-        <v>-117.0248837415376</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S6">
-        <v>161.7746336388288</v>
+        <v>161.7746336388287</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10523,31 +10523,31 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186053</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.2439445357823</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833884</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.694224151566148E-11</v>
+        <v>-8.693901070699746E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671962</v>
+        <v>0.952627964667196</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965617</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>1.457077463567532E-10</v>
+        <v>1.457407147316364E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952627964640425</v>
+        <v>0.9526279646404248</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233333</v>
+        <v>0.9526279649233326</v>
       </c>
       <c r="Q4">
-        <v>1.564817058742537E-09</v>
+        <v>1.56485941328855E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315011</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322571</v>
+        <v>0.9526279649322563</v>
       </c>
       <c r="Q5">
-        <v>2.037847842978468E-09</v>
+        <v>2.037889979844982E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315011</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322571</v>
+        <v>0.9526279649322563</v>
       </c>
       <c r="Q6">
-        <v>2.037850062731996E-09</v>
+        <v>2.03788934906073E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
